--- a/com.AutomationFramework/src/test/resources/ActiTimeData.xlsx
+++ b/com.AutomationFramework/src/test/resources/ActiTimeData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gulsh\eclipse-workspace\com.AutomationFramework\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gulsh\git\AutomationWithSelenium\com.AutomationFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08F0EF2-7772-4EBD-B7D5-8806B2CA113A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE2ADCB-FD79-4FFD-944B-6CA6335840A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BE2E9317-5F46-4335-A629-A81773195B53}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BE2E9317-5F46-4335-A629-A81773195B53}"/>
   </bookViews>
   <sheets>
     <sheet name="ValidData" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>usename</t>
   </si>
@@ -46,16 +47,46 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>manager1</t>
+  </si>
+  <si>
+    <t>admin2</t>
+  </si>
+  <si>
+    <t>admin3</t>
+  </si>
+  <si>
+    <t>admin4</t>
+  </si>
+  <si>
+    <t>manager2</t>
+  </si>
+  <si>
+    <t>manager3</t>
+  </si>
+  <si>
+    <t>manager4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -422,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE70EB98-1415-4E58-8ED6-F03392BFEF08}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,4 +482,60 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BA15D8-AD87-4445-9471-94D0199071C8}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>